--- a/data/processed/state_overviews/colorado_overview.xlsx
+++ b/data/processed/state_overviews/colorado_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>2634</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2,634</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Adams County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>97</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Alamosa County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>22</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Arapahoe County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>172</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Archuleta County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>14</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Bent County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Boulder County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>232</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Broomfield County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>25</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Chaffee County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>22</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Cheyenne County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Clear Creek County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>8</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Conejos County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>3</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Costilla County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>3</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Crowley County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>2</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Custer County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>5</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Delta County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>16</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Denver County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>619</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Dolores County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>2</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Douglas County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>68</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Eagle County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>51</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>El Paso County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>238</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Elbert County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>2</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Fremont County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>12</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Garfield County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>53</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Gilpin County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Grand County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>16</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Gunnison County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>34</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Hinsdale County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>3</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Huerfano County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>4</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Jackson County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>2</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>174</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Kiowa County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>2</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Kit Carson County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>6</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>La Plata County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>54</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Lake County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>8</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Larimer County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>136</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Las Animas County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>13</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Lincoln County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>6</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Logan County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>11</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Mesa County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>55</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Mineral County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>2</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Moffat County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>5</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Montezuma County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>23</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Montrose County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>31</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Morgan County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>8</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Otero County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>13</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Ouray County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>9</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Park County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>8</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Phillips County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>2</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Pitkin County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>44</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Prowers County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>10</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Pueblo County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>65</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Rio Blanco County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>7</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Rio Grande County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>9</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Routt County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>47</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Saguache County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>7</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>San Juan County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>3</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>San Miguel County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>28</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Summit County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>43</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Teller County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>15</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>1</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>Weld County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>48</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>Yuma County</t>
         </is>
       </c>
-      <c r="B63">
-        <v>10</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,27 +2450,61 @@
           <t>Baca County</t>
         </is>
       </c>
-      <c r="B64">
-        <v>0</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2,634</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>$3,482,686,129</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11.50%</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-6.54%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>59.83%</t>
         </is>
       </c>
     </row>
@@ -2399,8 +2559,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>622</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2429,8 +2591,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>504</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2459,8 +2623,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>533</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2489,8 +2655,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>162</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2519,8 +2687,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B6">
-        <v>238</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2549,8 +2719,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B7">
-        <v>198</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2579,8 +2751,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B8">
-        <v>262</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2609,8 +2783,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B9">
-        <v>115</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2639,8 +2815,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B10">
-        <v>2634</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2,634</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2714,8 +2892,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>822</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2744,8 +2924,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>771</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2774,8 +2956,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>514</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2804,8 +2988,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>168</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2834,8 +3020,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>255</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2864,8 +3052,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>104</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2894,8 +3084,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>2634</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2,634</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2969,8 +3161,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>249</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2999,8 +3193,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>391</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3029,8 +3225,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>176</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3059,8 +3257,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>226</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3089,8 +3289,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>9</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3119,8 +3321,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>805</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3149,8 +3353,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>36</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3179,8 +3385,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3209,8 +3417,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>219</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3239,8 +3449,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>63</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3269,8 +3481,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>451</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3299,8 +3513,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>8</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3329,8 +3545,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>2634</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2,634</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/colorado_overview.xlsx
+++ b/data/processed/state_overviews/colorado_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -431,443 +431,443 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adams County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$100,171,554</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.19%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-6.57%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>59.79%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alamosa County</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2,634</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$37,937,662</t>
+          <t>$3,482,686,129</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.54%</t>
+          <t>11.50%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-40.89%</t>
+          <t>-6.54%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>81.82%</t>
+          <t>59.83%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Arapahoe County</t>
+          <t>Adams County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$221,332,586</t>
+          <t>$100,171,554</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.96%</t>
+          <t>10.19%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-2.02%</t>
+          <t>-6.57%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>54.07%</t>
+          <t>59.79%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Archuleta County</t>
+          <t>Alamosa County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$2,816,356</t>
+          <t>$37,937,662</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>37.19%</t>
+          <t>8.54%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.71%</t>
+          <t>-40.89%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>81.82%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bent County</t>
+          <t>Arapahoe County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>172</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$504,784</t>
+          <t>$221,332,586</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.45%</t>
+          <t>9.96%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-25.15%</t>
+          <t>-2.02%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>54.07%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Boulder County</t>
+          <t>Archuleta County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$209,281,428</t>
+          <t>$2,816,356</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.04%</t>
+          <t>37.19%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-4.40%</t>
+          <t>8.71%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>58.62%</t>
+          <t>42.86%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Broomfield County</t>
+          <t>Bent County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$6,517,099</t>
+          <t>$504,784</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.02%</t>
+          <t>27.45%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>-25.15%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>48.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chaffee County</t>
+          <t>Boulder County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$7,849,824</t>
+          <t>$209,281,428</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18.86%</t>
+          <t>11.04%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.99%</t>
+          <t>-4.40%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>58.62%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cheyenne County</t>
+          <t>Broomfield County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$368,519</t>
+          <t>$6,517,099</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.55%</t>
+          <t>11.02%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>34.80%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>48.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Clear Creek County</t>
+          <t>Chaffee County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,037,800</t>
+          <t>$7,849,824</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-4.77%</t>
+          <t>18.86%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-22.40%</t>
+          <t>3.99%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>45.45%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Conejos County</t>
+          <t>Cheyenne County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$253,281</t>
+          <t>$368,519</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.43%</t>
+          <t>94.55%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-10.41%</t>
+          <t>34.80%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Costilla County</t>
+          <t>Clear Creek County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,831,267</t>
+          <t>$1,037,800</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16.37%</t>
+          <t>-4.77%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-9.10%</t>
+          <t>-22.40%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Crowley County</t>
+          <t>Conejos County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$465,111</t>
+          <t>$253,281</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.48%</t>
+          <t>9.43%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-86.39%</t>
+          <t>-10.41%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -879,551 +879,551 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Custer County</t>
+          <t>Costilla County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$83,509</t>
+          <t>$1,831,267</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-1.09%</t>
+          <t>16.37%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-8.47%</t>
+          <t>-9.10%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Delta County</t>
+          <t>Crowley County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$2,167,217</t>
+          <t>$465,111</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.57%</t>
+          <t>10.48%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-4.95%</t>
+          <t>-86.39%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>68.75%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Denver County</t>
+          <t>Custer County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$1,129,074,872</t>
+          <t>$83,509</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10.26%</t>
+          <t>-1.09%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-14.71%</t>
+          <t>-8.47%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>67.85%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dolores County</t>
+          <t>Delta County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$167,996</t>
+          <t>$2,167,217</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.15%</t>
+          <t>11.57%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-26.91%</t>
+          <t>-4.95%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>68.75%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Douglas County</t>
+          <t>Denver County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>619</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$47,994,222</t>
+          <t>$1,129,074,872</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.79%</t>
+          <t>10.26%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-3.03%</t>
+          <t>-14.71%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>54.41%</t>
+          <t>67.85%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Eagle County</t>
+          <t>Dolores County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$20,051,176</t>
+          <t>$167,996</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18.34%</t>
+          <t>5.15%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>9.25%</t>
+          <t>-26.91%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>37.25%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>El Paso County</t>
+          <t>Douglas County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$241,448,485</t>
+          <t>$47,994,222</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12.17%</t>
+          <t>10.79%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-1.50%</t>
+          <t>-3.03%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>52.52%</t>
+          <t>54.41%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Elbert County</t>
+          <t>Eagle County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$570,375</t>
+          <t>$20,051,176</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17.95%</t>
+          <t>18.34%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>9.41%</t>
+          <t>9.25%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>37.25%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fremont County</t>
+          <t>El Paso County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$5,257,028</t>
+          <t>$241,448,485</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>16.02%</t>
+          <t>12.17%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-7.11%</t>
+          <t>-1.50%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>52.52%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Garfield County</t>
+          <t>Elbert County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$29,885,714</t>
+          <t>$570,375</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9.16%</t>
+          <t>17.95%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-8.11%</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>62.26%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Gilpin County</t>
+          <t>Fremont County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$268,109</t>
+          <t>$5,257,028</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-28.90%</t>
+          <t>16.02%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-90.96%</t>
+          <t>-7.11%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Grand County</t>
+          <t>Garfield County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$2,329,265</t>
+          <t>$29,885,714</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19.58%</t>
+          <t>9.16%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-1.25%</t>
+          <t>-8.11%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>56.25%</t>
+          <t>62.26%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gunnison County</t>
+          <t>Gilpin County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$7,190,621</t>
+          <t>$268,109</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27.53%</t>
+          <t>-28.90%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.39%</t>
+          <t>-90.96%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>44.12%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hinsdale County</t>
+          <t>Grand County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$146,124</t>
+          <t>$2,329,265</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>30.79%</t>
+          <t>19.58%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21.94%</t>
+          <t>-1.25%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>56.25%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Huerfano County</t>
+          <t>Gunnison County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$1,309,391</t>
+          <t>$7,190,621</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.92%</t>
+          <t>27.53%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-37.53%</t>
+          <t>3.39%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>44.12%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jackson County</t>
+          <t>Hinsdale County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$322,079</t>
+          <t>$146,124</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.20%</t>
+          <t>30.79%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-51.54%</t>
+          <t>21.94%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Huerfano County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$835,410,988</t>
+          <t>$1,309,391</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12.46%</t>
+          <t>3.92%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-1.95%</t>
+          <t>-37.53%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>52.87%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kiowa County</t>
+          <t>Jackson County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1433,17 +1433,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$594,765</t>
+          <t>$322,079</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7.30%</t>
+          <t>2.20%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-56.62%</t>
+          <t>-51.54%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1455,987 +1455,987 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kit Carson County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>174</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$195,530</t>
+          <t>$835,410,988</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-3.42%</t>
+          <t>12.46%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-12.82%</t>
+          <t>-1.95%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>52.87%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>La Plata County</t>
+          <t>Kiowa County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$62,341,119</t>
+          <t>$594,765</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12.56%</t>
+          <t>7.30%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-12.15%</t>
+          <t>-56.62%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>62.96%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lake County</t>
+          <t>Kit Carson County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$2,543,549</t>
+          <t>$195,530</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>23.23%</t>
+          <t>-3.42%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.09%</t>
+          <t>-12.82%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Larimer County</t>
+          <t>La Plata County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$117,789,575</t>
+          <t>$62,341,119</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11.72%</t>
+          <t>12.56%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-5.56%</t>
+          <t>-12.15%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>58.82%</t>
+          <t>62.96%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Las Animas County</t>
+          <t>Lake County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$1,988,200</t>
+          <t>$2,543,549</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>23.23%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-2.51%</t>
+          <t>2.09%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Larimer County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$2,353,118</t>
+          <t>$117,789,575</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.31%</t>
+          <t>11.72%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-68.48%</t>
+          <t>-5.56%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>58.82%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Logan County</t>
+          <t>Las Animas County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$4,147,871</t>
+          <t>$1,988,200</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12.68%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-28.42%</t>
+          <t>-2.51%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>53.85%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mesa County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$45,197,910</t>
+          <t>$2,353,118</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>16.55%</t>
+          <t>5.31%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-6.05%</t>
+          <t>-68.48%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>61.82%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mineral County</t>
+          <t>Logan County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$235,755</t>
+          <t>$4,147,871</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14.31%</t>
+          <t>12.68%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-26.67%</t>
+          <t>-28.42%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Moffat County</t>
+          <t>Mesa County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$1,151,125</t>
+          <t>$45,197,910</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>16.55%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-30.23%</t>
+          <t>-6.05%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>61.82%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Montezuma County</t>
+          <t>Mineral County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$9,958,398</t>
+          <t>$235,755</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>24.93%</t>
+          <t>14.31%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.36%</t>
+          <t>-26.67%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>47.83%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Montrose County</t>
+          <t>Moffat County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$25,945,089</t>
+          <t>$1,151,125</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>14.71%</t>
+          <t>0.96%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-17.57%</t>
+          <t>-30.23%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>67.74%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Morgan County</t>
+          <t>Montezuma County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$2,905,684</t>
+          <t>$9,958,398</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6.47%</t>
+          <t>24.93%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-33.83%</t>
+          <t>0.36%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>47.83%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Otero County</t>
+          <t>Montrose County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$19,021,222</t>
+          <t>$25,945,089</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5.80%</t>
+          <t>14.71%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-22.69%</t>
+          <t>-17.57%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>67.74%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Ouray County</t>
+          <t>Morgan County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$27,127,199</t>
+          <t>$2,905,684</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>28.30%</t>
+          <t>6.47%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>-33.83%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Park County</t>
+          <t>Otero County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$4,103,841</t>
+          <t>$19,021,222</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-0.21%</t>
+          <t>5.80%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-43.17%</t>
+          <t>-22.69%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>84.62%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Phillips County</t>
+          <t>Ouray County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$73,208</t>
+          <t>$27,127,199</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>15.80%</t>
+          <t>28.30%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-18.46%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>44.44%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pitkin County</t>
+          <t>Park County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$15,418,625</t>
+          <t>$4,103,841</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12.59%</t>
+          <t>-0.21%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-2.21%</t>
+          <t>-43.17%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Prowers County</t>
+          <t>Phillips County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$6,152,805</t>
+          <t>$73,208</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>15.14%</t>
+          <t>15.80%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-7.85%</t>
+          <t>-18.46%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pueblo County</t>
+          <t>Pitkin County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$60,581,292</t>
+          <t>$15,418,625</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12.41%</t>
+          <t>12.59%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-3.36%</t>
+          <t>-2.21%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>58.46%</t>
+          <t>54.55%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Rio Blanco County</t>
+          <t>Prowers County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$687,723</t>
+          <t>$6,152,805</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>40.04%</t>
+          <t>15.14%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>19.16%</t>
+          <t>-7.85%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Rio Grande County</t>
+          <t>Pueblo County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$9,296,848</t>
+          <t>$60,581,292</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8.01%</t>
+          <t>12.41%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-30.53%</t>
+          <t>-3.36%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>58.46%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Routt County</t>
+          <t>Rio Blanco County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$20,539,333</t>
+          <t>$687,723</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12.13%</t>
+          <t>40.04%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-7.87%</t>
+          <t>19.16%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>61.70%</t>
+          <t>28.57%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Saguache County</t>
+          <t>Rio Grande County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$2,756,327</t>
+          <t>$9,296,848</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4.57%</t>
+          <t>8.01%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-71.37%</t>
+          <t>-30.53%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>San Juan County</t>
+          <t>Routt County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$1,005,001</t>
+          <t>$20,539,333</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.54%</t>
+          <t>12.13%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-21.96%</t>
+          <t>-7.87%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>61.70%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>San Miguel County</t>
+          <t>Saguache County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$8,871,602</t>
+          <t>$2,756,327</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>15.87%</t>
+          <t>4.57%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-8.64%</t>
+          <t>-71.37%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>60.71%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Summit County</t>
+          <t>San Juan County</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$23,830,822</t>
+          <t>$1,005,001</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>13.61%</t>
+          <t>1.54%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-4.91%</t>
+          <t>-21.96%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>55.81%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Teller County</t>
+          <t>San Miguel County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$3,355,601</t>
+          <t>$8,871,602</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>15.20%</t>
+          <t>15.87%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-2.65%</t>
+          <t>-8.64%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>53.33%</t>
+          <t>60.71%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Summit County</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$78,310</t>
+          <t>$23,830,822</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4.99%</t>
+          <t>13.61%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-16.16%</t>
+          <t>-4.91%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>55.81%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Weld County</t>
+          <t>Teller County</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$85,873,850</t>
+          <t>$3,355,601</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>14.81%</t>
+          <t>15.20%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-3.94%</t>
+          <t>-2.65%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>52.08%</t>
+          <t>53.33%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Yuma County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$2,520,390</t>
+          <t>$78,310</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-1.03%</t>
+          <t>4.99%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-31.39%</t>
+          <t>-16.16%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2447,64 +2447,64 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Baca County</t>
+          <t>Weld County</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$85,873,850</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>14.81%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-3.94%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>52.08%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Yuma County</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2,634</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$3,482,686,129</t>
+          <t>$2,520,390</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>11.50%</t>
+          <t>-1.03%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-6.54%</t>
+          <t>-31.39%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>59.83%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2524,320 +2524,352 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$1,136,575,225</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.20%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-15.61%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>68.01%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>2,634</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$379,994,907</t>
+          <t>$3,482,686,129</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.01%</t>
+          <t>11.50%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-4.92%</t>
+          <t>-6.54%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>59.83%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>622</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$377,739,896</t>
+          <t>$1,136,575,225</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.53%</t>
+          <t>10.20%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-6.51%</t>
+          <t>-15.61%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>60.23%</t>
+          <t>68.01%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>504</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$84,520,225</t>
+          <t>$379,994,907</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.57%</t>
+          <t>12.01%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-7.85%</t>
+          <t>-4.92%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>62.35%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>533</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$241,448,485</t>
+          <t>$377,739,896</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.17%</t>
+          <t>13.53%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-1.50%</t>
+          <t>-6.51%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>52.52%</t>
+          <t>60.23%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$241,840,544</t>
+          <t>$84,520,225</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.66%</t>
+          <t>9.57%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-2.31%</t>
+          <t>-7.85%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>55.05%</t>
+          <t>62.35%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$865,421,283</t>
+          <t>$241,448,485</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.15%</t>
+          <t>12.17%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-1.54%</t>
+          <t>-1.50%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>52.67%</t>
+          <t>52.52%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Congressional District 8</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$155,145,564</t>
+          <t>$241,840,544</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.41%</t>
+          <t>9.66%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-6.57%</t>
+          <t>-2.31%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>56.52%</t>
+          <t>55.05%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>7th Congressional district</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2,634</t>
+          <t>262</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$3,482,686,129</t>
+          <t>$865,421,283</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.50%</t>
+          <t>13.15%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-6.54%</t>
+          <t>-1.54%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>59.83%</t>
+          <t>52.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>8th Congressional district</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$155,145,564</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.41%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-6.57%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>56.52%</t>
         </is>
       </c>
     </row>
@@ -2862,34 +2894,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2921,128 +2953,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$510,107,581</t>
+          <t>$2,413,651,152</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.27%</t>
+          <t>8.78%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-5.73%</t>
+          <t>-3.31%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>61.22%</t>
+          <t>58.82%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>771</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$123,409,720</t>
+          <t>$510,107,581</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.00%</t>
+          <t>11.27%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-9.87%</t>
+          <t>-5.73%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>61.48%</t>
+          <t>61.22%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$320,611,430</t>
+          <t>$123,409,720</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.95%</t>
+          <t>12.00%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-2.03%</t>
+          <t>-9.87%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>61.48%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>168</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2,413,651,152</t>
+          <t>$320,611,430</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.78%</t>
+          <t>10.95%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-3.31%</t>
+          <t>-2.03%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>58.82%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -3131,34 +3163,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3190,7 +3222,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3222,7 +3254,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3254,7 +3286,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3318,7 +3350,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3350,7 +3382,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3382,160 +3414,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$125,213</t>
+          <t>$811,655,142</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.79%</t>
+          <t>11.99%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-50.63%</t>
+          <t>-10.59%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.73%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$811,655,142</t>
+          <t>$32,906,480</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.99%</t>
+          <t>10.80%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-10.59%</t>
+          <t>0.69%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>60.73%</t>
+          <t>46.03%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$32,906,480</t>
+          <t>$125,213</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>43.79%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.69%</t>
+          <t>-50.63%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>46.03%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$723,370,345</t>
+          <t>$39,141,592</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.70%</t>
+          <t>3.89%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-5.86%</t>
+          <t>-3.48%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>62.08%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>451</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$39,141,592</t>
+          <t>$723,370,345</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.89%</t>
+          <t>10.70%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-3.48%</t>
+          <t>-5.86%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>62.08%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/colorado_overview.xlsx
+++ b/data/processed/state_overviews/colorado_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>59.83%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>2,634</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$3,482,686,129</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>11.50%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-6.54%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>59.83%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>59.83%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2,634</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$3,482,686,129</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>11.50%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-6.54%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>59.83%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>59.79%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>97</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$100,171,554</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>10.19%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-6.57%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>59.79%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$37,937,662</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.54%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-40.89%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>54.07%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>172</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$221,332,586</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>9.96%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-2.02%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>54.07%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,816,356</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>37.19%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>8.71%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>42.86%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$504,784</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>27.45%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-25.15%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>58.62%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>232</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$209,281,428</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>11.04%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-4.40%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>58.62%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>48.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$6,517,099</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>11.02%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>0.38%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>48.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>45.45%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$7,849,824</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>18.86%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.99%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>45.45%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$368,519</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>94.55%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>34.80%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$1,037,800</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>-4.77%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-22.40%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$253,281</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>9.43%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-10.41%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$1,831,267</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>16.37%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-9.10%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$465,111</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>10.48%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-86.39%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$83,509</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>-1.09%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-8.47%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>68.75%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$2,167,217</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>11.57%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-4.95%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>68.75%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>67.85%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>619</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$1,129,074,872</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>10.26%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-14.71%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>67.85%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$167,996</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>5.15%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-26.91%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>54.41%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>68</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$47,994,222</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>10.79%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-3.03%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>54.41%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>37.25%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$20,051,176</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>18.34%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>9.25%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>37.25%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>52.52%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>238</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$241,448,485</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>12.17%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-1.50%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>52.52%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$570,375</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>17.95%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>9.41%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$5,257,028</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>16.02%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-7.11%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>62.26%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$29,885,714</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>9.16%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-8.11%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>62.26%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$268,109</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>-28.90%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-90.96%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>56.25%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$2,329,265</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>19.58%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-1.25%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>56.25%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>44.12%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$7,190,621</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>27.53%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>3.39%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>44.12%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$146,124</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>30.79%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>21.94%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$1,309,391</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>3.92%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-37.53%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$322,079</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2.20%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-51.54%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>52.87%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>174</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$835,410,988</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>12.46%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-1.95%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>52.87%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$594,765</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>7.30%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-56.62%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$195,530</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>-3.42%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-12.82%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>62.96%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$62,341,119</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>12.56%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-12.15%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>62.96%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$2,543,549</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>23.23%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>2.09%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>58.82%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>136</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$117,789,575</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>11.72%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-5.56%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>58.82%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>53.85%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$1,988,200</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>6.27%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-2.51%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>53.85%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$2,353,118</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>5.31%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-68.48%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$4,147,871</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>12.68%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-28.42%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>61.82%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$45,197,910</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>16.55%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-6.05%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>61.82%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$235,755</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>14.31%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-26.67%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$1,151,125</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>0.96%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-30.23%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>47.83%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$9,958,398</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>24.93%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>0.36%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>47.83%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>67.74%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$25,945,089</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>14.71%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-17.57%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>67.74%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$2,905,684</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>6.47%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-33.83%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>84.62%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$19,021,222</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>5.80%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-22.69%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>84.62%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$27,127,199</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>28.30%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>0.22%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>44.44%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$4,103,841</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>-0.21%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-43.17%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$73,208</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>15.80%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-18.46%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>54.55%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$15,418,625</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>12.59%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-2.21%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>54.55%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$6,152,805</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>15.14%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-7.85%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>58.46%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$60,581,292</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>12.41%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-3.36%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>58.46%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$687,723</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>40.04%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>19.16%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>28.57%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$9,296,848</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>8.01%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-30.53%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>61.70%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$20,539,333</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>12.13%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-7.87%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>61.70%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$2,756,327</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>4.57%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-71.37%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$1,005,001</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1.54%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-21.96%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>60.71%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$8,871,602</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>15.87%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-8.64%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>60.71%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>55.81%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$23,830,822</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>13.61%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>-4.91%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>55.81%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>53.33%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$3,355,601</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>15.20%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>-2.65%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>53.33%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$78,310</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>4.99%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-16.16%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>52.08%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$85,873,850</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>14.81%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-3.94%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>52.08%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$2,520,390</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>-1.03%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-31.39%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2529,27 +2529,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2561,27 +2561,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2593,283 +2593,283 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>59.83%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2,634</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$3,482,686,129</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>11.50%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-6.54%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>59.83%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>68.01%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>622</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$1,136,575,225</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>10.20%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-15.61%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>68.01%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>504</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$379,994,907</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>12.01%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-4.92%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>60.23%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>533</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$377,739,896</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>13.53%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-6.51%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>60.23%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>62.35%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>162</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$84,520,225</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>9.57%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-7.85%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>62.35%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>52.52%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>238</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$241,448,485</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>12.17%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-1.50%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>52.52%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>55.05%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>198</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$241,840,544</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>9.66%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-2.31%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>55.05%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>52.67%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>262</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$865,421,283</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>13.15%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-1.54%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>52.67%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>56.52%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>115</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$155,145,564</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>12.41%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-6.57%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>56.52%</t>
         </is>
       </c>
     </row>
@@ -2894,187 +2894,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>59.85%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>822</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$80,146,053</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>11.80%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-8.15%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>59.85%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>61.22%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$2,413,651,152</t>
+          <t>771</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.78%</t>
+          <t>$510,107,581</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-3.31%</t>
+          <t>11.27%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>58.82%</t>
+          <t>-5.73%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>61.48%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$510,107,581</t>
+          <t>514</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.27%</t>
+          <t>$123,409,720</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-5.73%</t>
+          <t>12.00%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>61.22%</t>
+          <t>-9.87%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$123,409,720</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.00%</t>
+          <t>$320,611,430</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-9.87%</t>
+          <t>10.95%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>61.48%</t>
+          <t>-2.03%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>58.82%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$320,611,430</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.95%</t>
+          <t>$2,413,651,152</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-2.03%</t>
+          <t>8.78%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>-3.31%</t>
         </is>
       </c>
     </row>
@@ -3086,27 +3086,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>48.08%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>104</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$34,760,193</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>40.71%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.64%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>48.08%</t>
         </is>
       </c>
     </row>
@@ -3118,27 +3118,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>59.83%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2,634</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$3,482,686,129</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>11.50%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-6.54%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>59.83%</t>
         </is>
       </c>
     </row>
@@ -3163,155 +3163,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>61.85%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>249</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$141,641,801</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>15.02%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-8.47%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>61.85%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>52.69%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>391</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$453,381,157</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>12.73%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-1.54%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>52.69%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>56.82%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>176</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$248,916,889</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>14.42%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-4.78%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>56.82%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>60.62%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>226</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$325,947,876</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>11.49%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-8.73%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>60.62%</t>
         </is>
       </c>
     </row>
@@ -3323,251 +3323,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$24,696,191</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>3.42%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.37%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>63.60%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>805</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$674,765,938</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>9.84%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-9.48%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>63.60%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>41.67%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$6,137,505</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>16.97%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.76%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>41.67%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$811,655,142</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.99%</t>
+          <t>$125,213</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-10.59%</t>
+          <t>43.79%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>60.73%</t>
+          <t>-50.63%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>60.73%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$32,906,480</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>$811,655,142</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.69%</t>
+          <t>11.99%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>46.03%</t>
+          <t>-10.59%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>46.03%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$125,213</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.79%</t>
+          <t>$32,906,480</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-50.63%</t>
+          <t>10.80%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.69%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>62.08%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$39,141,592</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.89%</t>
+          <t>$723,370,345</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-3.48%</t>
+          <t>10.70%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>-5.86%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$723,370,345</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.70%</t>
+          <t>$39,141,592</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-5.86%</t>
+          <t>3.89%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>62.08%</t>
+          <t>-3.48%</t>
         </is>
       </c>
     </row>
@@ -3579,27 +3579,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>59.83%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>2,634</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$3,482,686,129</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>11.50%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-6.54%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>59.83%</t>
         </is>
       </c>
     </row>
